--- a/Document/Artschedule.xlsx
+++ b/Document/Artschedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>11/19-11/22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,42 +33,6 @@
   </si>
   <si>
     <t>12/17-12/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女孩房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉彬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女孩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜莺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸（道具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔（道具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简笔画（道具）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,6 +50,30 @@
   </si>
   <si>
     <t>动画：开场动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女孩房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜莺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸（道具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔（道具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简笔画（道具）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +91,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -118,7 +114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,11 +146,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -162,7 +155,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -470,127 +467,126 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="6" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
